--- a/ebiz-xjf-pom/setting/java讲义-4.xlsx
+++ b/ebiz-xjf-pom/setting/java讲义-4.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第十" sheetId="4" r:id="rId1"/>
     <sheet name="第十三" sheetId="8" r:id="rId2"/>
+    <sheet name="第十五" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>10 异常处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,12 +59,32 @@
     <t>13.2.7 DML语句</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PreparedStatement和Statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库连接池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.Annotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +112,33 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -126,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -137,6 +185,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,6 +1048,581 @@
         <a:xfrm>
           <a:off x="519994" y="17430750"/>
           <a:ext cx="5441689" cy="2352257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>10788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>189531</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>47451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="21642063"/>
+          <a:ext cx="5980731" cy="1065363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>7129</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="20783551"/>
+          <a:ext cx="5445904" cy="1323974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>75153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>170474</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>114126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="23249478"/>
+          <a:ext cx="6037874" cy="1067673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>157481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>47109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457199" y="24941531"/>
+          <a:ext cx="6200775" cy="1947028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>132720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495299" y="26831925"/>
+          <a:ext cx="5819775" cy="2713995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>95813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>132384</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>37586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="30194813"/>
+          <a:ext cx="6342684" cy="3370773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16452</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="304800"/>
+          <a:ext cx="1683327" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>8578</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="1400175"/>
+          <a:ext cx="7571428" cy="2990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>18099</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>75650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="4362450"/>
+          <a:ext cx="7609524" cy="4400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>237149</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>75555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="9086850"/>
+          <a:ext cx="7809524" cy="5161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>56369</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>161240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="14687550"/>
+          <a:ext cx="6247619" cy="5476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>94464</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>66259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="20431125"/>
+          <a:ext cx="6285714" cy="3323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>94489</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>47104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="23917275"/>
+          <a:ext cx="6085714" cy="4171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85312</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>47563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28451175"/>
+          <a:ext cx="3304762" cy="495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>8568</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>56492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="29003625"/>
+          <a:ext cx="7657143" cy="5266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1301,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="AK102" sqref="AK102"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="J205" sqref="J205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1337,6 +1969,61 @@
         <v>7</v>
       </c>
     </row>
+    <row r="117" spans="3:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C117" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C134" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="C143" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C174" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="AH165" sqref="AH165"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C117" s="6"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C134" s="4"/>
+    </row>
+    <row r="143" spans="3:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="C143" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
